--- a/projects/__output__/drop_rate_analysis.xlsx
+++ b/projects/__output__/drop_rate_analysis.xlsx
@@ -477,6 +477,22 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.77734375" customWidth="1" min="1" max="1"/>
+    <col width="6.44140625" customWidth="1" min="2" max="2"/>
+    <col width="4.6640625" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5.5546875" customWidth="1" min="5" max="5"/>
+    <col width="9.6640625" customWidth="1" min="6" max="6"/>
+    <col width="2.77734375" customWidth="1" min="7" max="7"/>
+    <col width="4.88671875" customWidth="1" min="8" max="8"/>
+    <col width="6.44140625" customWidth="1" min="9" max="9"/>
+    <col width="4.6640625" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="5.5546875" customWidth="1" min="12" max="12"/>
+    <col width="9.6640625" customWidth="1" min="13" max="13"/>
+    <col width="2.77734375" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>

--- a/projects/__output__/drop_rate_analysis.xlsx
+++ b/projects/__output__/drop_rate_analysis.xlsx
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>0.008726003490401396</v>
+        <v>0.008576329331046312</v>
       </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" t="n">
@@ -643,7 +643,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>0.03490401396160558</v>
+        <v>0.03430531732418525</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" t="n">
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>0.02443280977312391</v>
+        <v>0.02401372212692967</v>
       </c>
       <c r="G7" s="1" t="n"/>
       <c r="H7" t="n">
@@ -719,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0.118673647469459</v>
+        <v>0.1183533447684391</v>
       </c>
       <c r="G8" s="1" t="n"/>
       <c r="H8" t="n">
@@ -757,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.03141361256544502</v>
+        <v>0.03087478559176672</v>
       </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" t="n">
@@ -795,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>0.1169284467713787</v>
+        <v>0.1166380789022299</v>
       </c>
       <c r="G10" s="1" t="n"/>
       <c r="H10" t="n">
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>0.1239092495636998</v>
+        <v>0.1217838765008576</v>
       </c>
       <c r="G11" s="1" t="n"/>
       <c r="H11" t="n">
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>0.5410122164048866</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G12" s="1" t="n"/>
       <c r="H12" t="n">

--- a/projects/__output__/drop_rate_analysis.xlsx
+++ b/projects/__output__/drop_rate_analysis.xlsx
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>0.008576329331046312</v>
+        <v>0.01013513513513514</v>
       </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" t="n">
@@ -643,7 +643,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>0.03430531732418525</v>
+        <v>0.03716216216216216</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" t="n">
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>0.02401372212692967</v>
+        <v>0.02364864864864865</v>
       </c>
       <c r="G7" s="1" t="n"/>
       <c r="H7" t="n">
@@ -719,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0.1183533447684391</v>
+        <v>0.1199324324324324</v>
       </c>
       <c r="G8" s="1" t="n"/>
       <c r="H8" t="n">
@@ -757,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.03087478559176672</v>
+        <v>0.03040540540540541</v>
       </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" t="n">
@@ -795,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>0.1166380789022299</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="G10" s="1" t="n"/>
       <c r="H10" t="n">
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>0.1217838765008576</v>
+        <v>0.1233108108108108</v>
       </c>
       <c r="G11" s="1" t="n"/>
       <c r="H11" t="n">
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="G12" s="1" t="n"/>
       <c r="H12" t="n">

--- a/projects/__output__/drop_rate_analysis.xlsx
+++ b/projects/__output__/drop_rate_analysis.xlsx
@@ -596,16 +596,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>0.01013513513513514</v>
+        <v>0.004021447721179625</v>
       </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" t="n">
@@ -631,19 +631,19 @@
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>0.03716216216216216</v>
+        <v>0.01072386058981233</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" t="n">
@@ -672,16 +672,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>0.02364864864864865</v>
+        <v>0.001340482573726542</v>
       </c>
       <c r="G7" s="1" t="n"/>
       <c r="H7" t="n">
@@ -710,16 +710,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0.1199324324324324</v>
+        <v>0.0388739946380697</v>
       </c>
       <c r="G8" s="1" t="n"/>
       <c r="H8" t="n">
@@ -745,19 +745,19 @@
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.03040540540540541</v>
+        <v>0.02144772117962467</v>
       </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" t="n">
@@ -783,19 +783,19 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>0.1148648648648649</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="G10" s="1" t="n"/>
       <c r="H10" t="n">
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>0.1233108108108108</v>
+        <v>0.03083109919571046</v>
       </c>
       <c r="G11" s="1" t="n"/>
       <c r="H11" t="n">
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.113941018766756</v>
       </c>
       <c r="G12" s="1" t="n"/>
       <c r="H12" t="n">
@@ -896,6 +896,21 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>0.1367292225201072</v>
+      </c>
       <c r="G13" s="1" t="n"/>
       <c r="H13" t="n">
         <v>0</v>
@@ -919,6 +934,21 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>0.5268096514745308</v>
+      </c>
       <c r="G14" s="1" t="n"/>
       <c r="H14" t="n">
         <v>0</v>
@@ -1411,7 +1441,7 @@
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="H2:M3"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F12">
+  <conditionalFormatting sqref="F5:F14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
